--- a/Code/Results/Cases/Case_3_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008772063180654</v>
+        <v>1.04026176048104</v>
       </c>
       <c r="D2">
-        <v>1.030037037492645</v>
+        <v>1.047921907626942</v>
       </c>
       <c r="E2">
-        <v>1.023745148691186</v>
+        <v>1.048651322513672</v>
       </c>
       <c r="F2">
-        <v>1.034051795722412</v>
+        <v>1.059437578510863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051762432294449</v>
+        <v>1.038449617506755</v>
       </c>
       <c r="J2">
-        <v>1.030693531929745</v>
+        <v>1.045349320086019</v>
       </c>
       <c r="K2">
-        <v>1.04109318717223</v>
+        <v>1.050683193543871</v>
       </c>
       <c r="L2">
-        <v>1.034883298119083</v>
+        <v>1.051410572982452</v>
       </c>
       <c r="M2">
-        <v>1.045056274552938</v>
+        <v>1.062167084062324</v>
       </c>
       <c r="N2">
-        <v>1.032157234967297</v>
+        <v>1.046833836023784</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013637406483481</v>
+        <v>1.041285047407972</v>
       </c>
       <c r="D3">
-        <v>1.033856174832933</v>
+        <v>1.048733097010849</v>
       </c>
       <c r="E3">
-        <v>1.027812746512262</v>
+        <v>1.049555622554827</v>
       </c>
       <c r="F3">
-        <v>1.038470416564676</v>
+        <v>1.060416330813621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053211492232722</v>
+        <v>1.038658904326011</v>
       </c>
       <c r="J3">
-        <v>1.033763082009622</v>
+        <v>1.046017783524972</v>
       </c>
       <c r="K3">
-        <v>1.044073438096693</v>
+        <v>1.05130632642991</v>
       </c>
       <c r="L3">
-        <v>1.03810170844507</v>
+        <v>1.052126722677755</v>
       </c>
       <c r="M3">
-        <v>1.048633631752935</v>
+        <v>1.062959649437724</v>
       </c>
       <c r="N3">
-        <v>1.035231144160358</v>
+        <v>1.047503248757494</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016717935309875</v>
+        <v>1.041947376886787</v>
       </c>
       <c r="D4">
-        <v>1.036274343533883</v>
+        <v>1.049257757592658</v>
       </c>
       <c r="E4">
-        <v>1.030393794525837</v>
+        <v>1.050141264632669</v>
       </c>
       <c r="F4">
-        <v>1.041272827568533</v>
+        <v>1.061050050049085</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054113861816085</v>
+        <v>1.038792487284543</v>
       </c>
       <c r="J4">
-        <v>1.035703451293345</v>
+        <v>1.046449927868126</v>
       </c>
       <c r="K4">
-        <v>1.045953826955363</v>
+        <v>1.051708650735849</v>
       </c>
       <c r="L4">
-        <v>1.040138726525883</v>
+        <v>1.052589985795034</v>
       </c>
       <c r="M4">
-        <v>1.050897393216329</v>
+        <v>1.063472273764617</v>
       </c>
       <c r="N4">
-        <v>1.037174268991028</v>
+        <v>1.047936006795183</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017997395510993</v>
+        <v>1.042225866349044</v>
       </c>
       <c r="D5">
-        <v>1.037278651628821</v>
+        <v>1.049478268043926</v>
       </c>
       <c r="E5">
-        <v>1.031467101476961</v>
+        <v>1.050387587219633</v>
       </c>
       <c r="F5">
-        <v>1.042437859001388</v>
+        <v>1.061316560670008</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054484967973615</v>
+        <v>1.038848204603456</v>
       </c>
       <c r="J5">
-        <v>1.036508568141699</v>
+        <v>1.046631505851609</v>
       </c>
       <c r="K5">
-        <v>1.046733190695058</v>
+        <v>1.051877575355392</v>
       </c>
       <c r="L5">
-        <v>1.040984556590431</v>
+        <v>1.052784708886888</v>
       </c>
       <c r="M5">
-        <v>1.051837263875431</v>
+        <v>1.063687727878705</v>
       </c>
       <c r="N5">
-        <v>1.037980529197654</v>
+        <v>1.04811784264023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018211325108284</v>
+        <v>1.042272628649968</v>
       </c>
       <c r="D6">
-        <v>1.037446570339571</v>
+        <v>1.049515289354765</v>
       </c>
       <c r="E6">
-        <v>1.031646636704201</v>
+        <v>1.050428952797187</v>
       </c>
       <c r="F6">
-        <v>1.042632718073661</v>
+        <v>1.06136131452209</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054546799971158</v>
+        <v>1.038857533912443</v>
       </c>
       <c r="J6">
-        <v>1.036643138441578</v>
+        <v>1.046661987975074</v>
       </c>
       <c r="K6">
-        <v>1.046863405110368</v>
+        <v>1.051905926056581</v>
       </c>
       <c r="L6">
-        <v>1.041125967745558</v>
+        <v>1.05281740181059</v>
       </c>
       <c r="M6">
-        <v>1.051994390760508</v>
+        <v>1.063723900430764</v>
       </c>
       <c r="N6">
-        <v>1.038115290602795</v>
+        <v>1.048148368051807</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016735092013772</v>
+        <v>1.04195109789577</v>
       </c>
       <c r="D7">
-        <v>1.03628781090532</v>
+        <v>1.04926070428882</v>
       </c>
       <c r="E7">
-        <v>1.030408181777701</v>
+        <v>1.050144555542052</v>
       </c>
       <c r="F7">
-        <v>1.041288445640636</v>
+        <v>1.061053610804759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054118852722664</v>
+        <v>1.038793233515445</v>
       </c>
       <c r="J7">
-        <v>1.035714250550118</v>
+        <v>1.046452354498092</v>
       </c>
       <c r="K7">
-        <v>1.045964284223429</v>
+        <v>1.051710908750962</v>
       </c>
       <c r="L7">
-        <v>1.040150069466953</v>
+        <v>1.052592587824024</v>
       </c>
       <c r="M7">
-        <v>1.050909997720837</v>
+        <v>1.063475152882968</v>
       </c>
       <c r="N7">
-        <v>1.037185083583984</v>
+        <v>1.047938436871242</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010430717079905</v>
+        <v>1.040607544598794</v>
       </c>
       <c r="D8">
-        <v>1.031338977713371</v>
+        <v>1.048196100543658</v>
       </c>
       <c r="E8">
-        <v>1.025130632683317</v>
+        <v>1.048956830973721</v>
       </c>
       <c r="F8">
-        <v>1.035557132913462</v>
+        <v>1.059768268820231</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052259571550477</v>
+        <v>1.038520727540477</v>
       </c>
       <c r="J8">
-        <v>1.031740613216805</v>
+        <v>1.045575312083069</v>
       </c>
       <c r="K8">
-        <v>1.042110537589749</v>
+        <v>1.050893966845638</v>
       </c>
       <c r="L8">
-        <v>1.035980622249768</v>
+        <v>1.051652626353056</v>
       </c>
       <c r="M8">
-        <v>1.046276073387153</v>
+        <v>1.062434979966822</v>
       </c>
       <c r="N8">
-        <v>1.033205803229875</v>
+        <v>1.047060148955392</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9987742622200717</v>
+        <v>1.038241537855794</v>
       </c>
       <c r="D9">
-        <v>1.022192264413068</v>
+        <v>1.046318391718991</v>
       </c>
       <c r="E9">
-        <v>1.015419910711111</v>
+        <v>1.046867774159797</v>
       </c>
       <c r="F9">
-        <v>1.025000441971393</v>
+        <v>1.057506445354947</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048703888464608</v>
+        <v>1.038026471956487</v>
       </c>
       <c r="J9">
-        <v>1.024370378821201</v>
+        <v>1.044026845018561</v>
       </c>
       <c r="K9">
-        <v>1.034935263725603</v>
+        <v>1.049447672939156</v>
       </c>
       <c r="L9">
-        <v>1.028267668230731</v>
+        <v>1.049995302711203</v>
       </c>
       <c r="M9">
-        <v>1.03770052063389</v>
+        <v>1.060600426288212</v>
       </c>
       <c r="N9">
-        <v>1.025825102256052</v>
+        <v>1.04550948289004</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9905917630258652</v>
+        <v>1.036665232440359</v>
       </c>
       <c r="D10">
-        <v>1.015778289891752</v>
+        <v>1.045065473963003</v>
       </c>
       <c r="E10">
-        <v>1.00863881225876</v>
+        <v>1.045477720963911</v>
       </c>
       <c r="F10">
-        <v>1.017620933732864</v>
+        <v>1.056000710466358</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046131671771848</v>
+        <v>1.037687542740762</v>
       </c>
       <c r="J10">
-        <v>1.019183694961103</v>
+        <v>1.042992548559003</v>
       </c>
       <c r="K10">
-        <v>1.029868388769238</v>
+        <v>1.048478992308626</v>
       </c>
       <c r="L10">
-        <v>1.022853822620288</v>
+        <v>1.048889795051586</v>
       </c>
       <c r="M10">
-        <v>1.031679161956377</v>
+        <v>1.059376338554772</v>
       </c>
       <c r="N10">
-        <v>1.020631052709951</v>
+        <v>1.044473717610874</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9869403939369968</v>
+        <v>1.035982922988514</v>
       </c>
       <c r="D11">
-        <v>1.012918770121611</v>
+        <v>1.044522694777824</v>
       </c>
       <c r="E11">
-        <v>1.005622102958099</v>
+        <v>1.044876451889901</v>
       </c>
       <c r="F11">
-        <v>1.014336147658995</v>
+        <v>1.055349230723346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044966614814858</v>
+        <v>1.037538553249134</v>
       </c>
       <c r="J11">
-        <v>1.016866744060842</v>
+        <v>1.042544222988155</v>
       </c>
       <c r="K11">
-        <v>1.027601101507783</v>
+        <v>1.048058488197563</v>
       </c>
       <c r="L11">
-        <v>1.02043876780853</v>
+        <v>1.048410957898306</v>
       </c>
       <c r="M11">
-        <v>1.028992676423338</v>
+        <v>1.058846055058167</v>
       </c>
       <c r="N11">
-        <v>1.018310811473654</v>
+        <v>1.044024755366292</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9855668545226783</v>
+        <v>1.035729519277031</v>
       </c>
       <c r="D12">
-        <v>1.011843596721991</v>
+        <v>1.044321044605871</v>
       </c>
       <c r="E12">
-        <v>1.004488779305941</v>
+        <v>1.04465320968304</v>
       </c>
       <c r="F12">
-        <v>1.013101828639601</v>
+        <v>1.055107320063259</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044525842160664</v>
+        <v>1.037482877189278</v>
       </c>
       <c r="J12">
-        <v>1.015994865717269</v>
+        <v>1.042377625037822</v>
       </c>
       <c r="K12">
-        <v>1.026747356115789</v>
+        <v>1.047902135794372</v>
       </c>
       <c r="L12">
-        <v>1.019530483727427</v>
+        <v>1.048233075260444</v>
       </c>
       <c r="M12">
-        <v>1.027982250553336</v>
+        <v>1.058649047975937</v>
       </c>
       <c r="N12">
-        <v>1.017437694962827</v>
+        <v>1.043857920827761</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9858622810874688</v>
+        <v>1.035783873583625</v>
       </c>
       <c r="D13">
-        <v>1.012074825522575</v>
+        <v>1.044364300949504</v>
       </c>
       <c r="E13">
-        <v>1.004732471319859</v>
+        <v>1.044701091542157</v>
       </c>
       <c r="F13">
-        <v>1.01336724998674</v>
+        <v>1.055159207182168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044620757586739</v>
+        <v>1.03749483503329</v>
       </c>
       <c r="J13">
-        <v>1.016182405905342</v>
+        <v>1.04241336401759</v>
       </c>
       <c r="K13">
-        <v>1.026931020635218</v>
+        <v>1.04793568107557</v>
       </c>
       <c r="L13">
-        <v>1.019725831582898</v>
+        <v>1.048271232639927</v>
       </c>
       <c r="M13">
-        <v>1.028199568967192</v>
+        <v>1.058691308290011</v>
       </c>
       <c r="N13">
-        <v>1.017625501479479</v>
+        <v>1.043893710560979</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9868272147948943</v>
+        <v>1.035961975815212</v>
       </c>
       <c r="D14">
-        <v>1.012830165597693</v>
+        <v>1.044506027078084</v>
       </c>
       <c r="E14">
-        <v>1.005528687064949</v>
+        <v>1.04485799665865</v>
       </c>
       <c r="F14">
-        <v>1.014234412862899</v>
+        <v>1.05532923271854</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044930345898613</v>
+        <v>1.0375339578745</v>
       </c>
       <c r="J14">
-        <v>1.016794907529068</v>
+        <v>1.042530453372106</v>
       </c>
       <c r="K14">
-        <v>1.027530770151625</v>
+        <v>1.048045567287799</v>
       </c>
       <c r="L14">
-        <v>1.020363921290392</v>
+        <v>1.048396254493009</v>
       </c>
       <c r="M14">
-        <v>1.028909414143676</v>
+        <v>1.058829771125378</v>
       </c>
       <c r="N14">
-        <v>1.018238872925765</v>
+        <v>1.044010966195808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9874194245284448</v>
+        <v>1.036071715306242</v>
       </c>
       <c r="D15">
-        <v>1.013293809428174</v>
+        <v>1.04459334423864</v>
       </c>
       <c r="E15">
-        <v>1.006017546201937</v>
+        <v>1.044954683810158</v>
       </c>
       <c r="F15">
-        <v>1.014766794454644</v>
+        <v>1.055434001412275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045120021076591</v>
+        <v>1.037558018406431</v>
       </c>
       <c r="J15">
-        <v>1.017170779885298</v>
+        <v>1.042602586744005</v>
       </c>
       <c r="K15">
-        <v>1.027898744438882</v>
+        <v>1.048113250832607</v>
       </c>
       <c r="L15">
-        <v>1.020755563739057</v>
+        <v>1.048473281791524</v>
       </c>
       <c r="M15">
-        <v>1.029345090608333</v>
+        <v>1.058915077874443</v>
       </c>
       <c r="N15">
-        <v>1.018615279063855</v>
+        <v>1.04408320200537</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9908317281076535</v>
+        <v>1.036710520167074</v>
       </c>
       <c r="D16">
-        <v>1.015966278581245</v>
+        <v>1.045101491078955</v>
       </c>
       <c r="E16">
-        <v>1.008837268030795</v>
+        <v>1.045517638617969</v>
       </c>
       <c r="F16">
-        <v>1.017836985932807</v>
+        <v>1.056043957915673</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046207886139765</v>
+        <v>1.037697383717626</v>
       </c>
       <c r="J16">
-        <v>1.019335917194217</v>
+        <v>1.043022292624909</v>
       </c>
       <c r="K16">
-        <v>1.030017269864058</v>
+        <v>1.048506877525166</v>
       </c>
       <c r="L16">
-        <v>1.023012560756771</v>
+        <v>1.048921570891182</v>
       </c>
       <c r="M16">
-        <v>1.0318557324183</v>
+        <v>1.059411526612261</v>
       </c>
       <c r="N16">
-        <v>1.020783491116096</v>
+        <v>1.044503503916765</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9929425086269937</v>
+        <v>1.037111290268624</v>
       </c>
       <c r="D17">
-        <v>1.017620178006778</v>
+        <v>1.045420169839157</v>
       </c>
       <c r="E17">
-        <v>1.010583990502391</v>
+        <v>1.045870935353771</v>
       </c>
       <c r="F17">
-        <v>1.019738372080303</v>
+        <v>1.05642670552711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046876333057905</v>
+        <v>1.037784206930288</v>
       </c>
       <c r="J17">
-        <v>1.0206746236869</v>
+        <v>1.043285437989224</v>
       </c>
       <c r="K17">
-        <v>1.031326157536936</v>
+        <v>1.048753506084814</v>
       </c>
       <c r="L17">
-        <v>1.024408954520465</v>
+        <v>1.049202732387081</v>
       </c>
       <c r="M17">
-        <v>1.033408946424925</v>
+        <v>1.059722870571124</v>
       </c>
       <c r="N17">
-        <v>1.022124098725552</v>
+        <v>1.044767022977681</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9941633131921433</v>
+        <v>1.03734507594937</v>
       </c>
       <c r="D18">
-        <v>1.018576983475986</v>
+        <v>1.045606024862214</v>
       </c>
       <c r="E18">
-        <v>1.011595111739426</v>
+        <v>1.046077068398658</v>
       </c>
       <c r="F18">
-        <v>1.020838846617103</v>
+        <v>1.056650005216151</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047261302575428</v>
+        <v>1.037834634162121</v>
       </c>
       <c r="J18">
-        <v>1.021448651542389</v>
+        <v>1.043438881003282</v>
       </c>
       <c r="K18">
-        <v>1.032082577597485</v>
+        <v>1.048897258129023</v>
       </c>
       <c r="L18">
-        <v>1.025216655635757</v>
+        <v>1.049366715096867</v>
       </c>
       <c r="M18">
-        <v>1.034307314647191</v>
+        <v>1.059904448508158</v>
       </c>
       <c r="N18">
-        <v>1.022899225789377</v>
+        <v>1.044920683898419</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9945778444948966</v>
+        <v>1.037424794765476</v>
       </c>
       <c r="D19">
-        <v>1.018901911248905</v>
+        <v>1.045669392370908</v>
       </c>
       <c r="E19">
-        <v>1.011938590118908</v>
+        <v>1.046147364769087</v>
       </c>
       <c r="F19">
-        <v>1.021212648531796</v>
+        <v>1.056726153008553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047391741197959</v>
+        <v>1.037851792016511</v>
       </c>
       <c r="J19">
-        <v>1.021711435670728</v>
+        <v>1.043491193419661</v>
       </c>
       <c r="K19">
-        <v>1.032339320927542</v>
+        <v>1.048946256502727</v>
       </c>
       <c r="L19">
-        <v>1.025490925893486</v>
+        <v>1.049422626564759</v>
       </c>
       <c r="M19">
-        <v>1.034612365579159</v>
+        <v>1.05996635784671</v>
       </c>
       <c r="N19">
-        <v>1.02316238310132</v>
+        <v>1.04497307060443</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.992717122199773</v>
+        <v>1.037068289022298</v>
       </c>
       <c r="D20">
-        <v>1.017443550607878</v>
+        <v>1.045385981193883</v>
       </c>
       <c r="E20">
-        <v>1.010397386317535</v>
+        <v>1.04583302363863</v>
       </c>
       <c r="F20">
-        <v>1.019535263351903</v>
+        <v>1.05638563520664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046805126576289</v>
+        <v>1.037774913885368</v>
       </c>
       <c r="J20">
-        <v>1.020531702317629</v>
+        <v>1.04325720965617</v>
       </c>
       <c r="K20">
-        <v>1.031186457554165</v>
+        <v>1.048727055742957</v>
       </c>
       <c r="L20">
-        <v>1.024259841273321</v>
+        <v>1.049172567866698</v>
       </c>
       <c r="M20">
-        <v>1.033243091394357</v>
+        <v>1.05968946875994</v>
       </c>
       <c r="N20">
-        <v>1.021980974391543</v>
+        <v>1.044738754557156</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9865435506102715</v>
+        <v>1.035909528141006</v>
       </c>
       <c r="D21">
-        <v>1.012608101805146</v>
+        <v>1.044464293302536</v>
       </c>
       <c r="E21">
-        <v>1.005294580119103</v>
+        <v>1.044811789359098</v>
       </c>
       <c r="F21">
-        <v>1.013979453563453</v>
+        <v>1.055279162278448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044839403867775</v>
+        <v>1.037522446409522</v>
       </c>
       <c r="J21">
-        <v>1.016614856769497</v>
+        <v>1.042495975400399</v>
       </c>
       <c r="K21">
-        <v>1.027354483091091</v>
+        <v>1.048013212906031</v>
       </c>
       <c r="L21">
-        <v>1.020176334563093</v>
+        <v>1.04835943925382</v>
       </c>
       <c r="M21">
-        <v>1.028700734189939</v>
+        <v>1.058788998264683</v>
       </c>
       <c r="N21">
-        <v>1.018058566473463</v>
+        <v>1.043976439261427</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9825615823605744</v>
+        <v>1.035181179856079</v>
       </c>
       <c r="D22">
-        <v>1.009492163632336</v>
+        <v>1.043884573184746</v>
       </c>
       <c r="E22">
-        <v>1.002011897955027</v>
+        <v>1.044170254057791</v>
       </c>
       <c r="F22">
-        <v>1.010403695553127</v>
+        <v>1.054583930063346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043556908357735</v>
+        <v>1.037361773663514</v>
       </c>
       <c r="J22">
-        <v>1.014086715531453</v>
+        <v>1.042016953198719</v>
       </c>
       <c r="K22">
-        <v>1.024877895400718</v>
+        <v>1.047563475137949</v>
       </c>
       <c r="L22">
-        <v>1.017543603837859</v>
+        <v>1.047848070662329</v>
       </c>
       <c r="M22">
-        <v>1.025771832685721</v>
+        <v>1.058222627734088</v>
       </c>
       <c r="N22">
-        <v>1.01552683498488</v>
+        <v>1.043496736793277</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9846823663858051</v>
+        <v>1.035567271039428</v>
       </c>
       <c r="D23">
-        <v>1.011151392779705</v>
+        <v>1.044191914195047</v>
       </c>
       <c r="E23">
-        <v>1.003759403552502</v>
+        <v>1.04451029117185</v>
       </c>
       <c r="F23">
-        <v>1.01230737460681</v>
+        <v>1.054952442780321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04424130943007</v>
+        <v>1.037447132731135</v>
       </c>
       <c r="J23">
-        <v>1.015433341879138</v>
+        <v>1.042270930061766</v>
       </c>
       <c r="K23">
-        <v>1.026197357055108</v>
+        <v>1.047801976290678</v>
       </c>
       <c r="L23">
-        <v>1.018945657847077</v>
+        <v>1.048119168229591</v>
       </c>
       <c r="M23">
-        <v>1.027331641770517</v>
+        <v>1.058522891048264</v>
       </c>
       <c r="N23">
-        <v>1.016875373696438</v>
+        <v>1.0437510743326</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9928189966232079</v>
+        <v>1.037087719362558</v>
       </c>
       <c r="D24">
-        <v>1.017523385248334</v>
+        <v>1.045401429648022</v>
       </c>
       <c r="E24">
-        <v>1.010481728499314</v>
+        <v>1.045850154122229</v>
       </c>
       <c r="F24">
-        <v>1.019627065876911</v>
+        <v>1.056404192963712</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0468373169145</v>
+        <v>1.037779113677526</v>
       </c>
       <c r="J24">
-        <v>1.020596303356524</v>
+        <v>1.043269964964512</v>
       </c>
       <c r="K24">
-        <v>1.031249603652868</v>
+        <v>1.048739007829739</v>
       </c>
       <c r="L24">
-        <v>1.024327240077009</v>
+        <v>1.049186197958393</v>
       </c>
       <c r="M24">
-        <v>1.033318057567806</v>
+        <v>1.059704561673951</v>
       </c>
       <c r="N24">
-        <v>1.022045667171322</v>
+        <v>1.044751527979499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00185688987037</v>
+        <v>1.038853026799866</v>
       </c>
       <c r="D25">
-        <v>1.024610342403911</v>
+        <v>1.046804024704104</v>
       </c>
       <c r="E25">
-        <v>1.017982128317958</v>
+        <v>1.047407381916874</v>
       </c>
       <c r="F25">
-        <v>1.027787179552724</v>
+        <v>1.058090806387619</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04965759895479</v>
+        <v>1.038155912445243</v>
       </c>
       <c r="J25">
-        <v>1.026321923454899</v>
+        <v>1.044427513389067</v>
       </c>
       <c r="K25">
-        <v>1.036838259976285</v>
+        <v>1.049822368347069</v>
       </c>
       <c r="L25">
-        <v>1.030307563948174</v>
+        <v>1.050423873812586</v>
       </c>
       <c r="M25">
-        <v>1.039968922919364</v>
+        <v>1.061074891301995</v>
       </c>
       <c r="N25">
-        <v>1.027779418306976</v>
+        <v>1.045910720255589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_195/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04026176048104</v>
+        <v>1.008772063180654</v>
       </c>
       <c r="D2">
-        <v>1.047921907626942</v>
+        <v>1.030037037492645</v>
       </c>
       <c r="E2">
-        <v>1.048651322513672</v>
+        <v>1.023745148691186</v>
       </c>
       <c r="F2">
-        <v>1.059437578510863</v>
+        <v>1.034051795722411</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038449617506755</v>
+        <v>1.051762432294449</v>
       </c>
       <c r="J2">
-        <v>1.045349320086019</v>
+        <v>1.030693531929745</v>
       </c>
       <c r="K2">
-        <v>1.050683193543871</v>
+        <v>1.04109318717223</v>
       </c>
       <c r="L2">
-        <v>1.051410572982452</v>
+        <v>1.034883298119082</v>
       </c>
       <c r="M2">
-        <v>1.062167084062324</v>
+        <v>1.045056274552937</v>
       </c>
       <c r="N2">
-        <v>1.046833836023784</v>
+        <v>1.032157234967297</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041285047407972</v>
+        <v>1.01363740648348</v>
       </c>
       <c r="D3">
-        <v>1.048733097010849</v>
+        <v>1.033856174832932</v>
       </c>
       <c r="E3">
-        <v>1.049555622554827</v>
+        <v>1.027812746512261</v>
       </c>
       <c r="F3">
-        <v>1.060416330813621</v>
+        <v>1.038470416564675</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038658904326011</v>
+        <v>1.053211492232721</v>
       </c>
       <c r="J3">
-        <v>1.046017783524972</v>
+        <v>1.033763082009621</v>
       </c>
       <c r="K3">
-        <v>1.05130632642991</v>
+        <v>1.044073438096692</v>
       </c>
       <c r="L3">
-        <v>1.052126722677755</v>
+        <v>1.038101708445069</v>
       </c>
       <c r="M3">
-        <v>1.062959649437724</v>
+        <v>1.048633631752933</v>
       </c>
       <c r="N3">
-        <v>1.047503248757494</v>
+        <v>1.035231144160357</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041947376886787</v>
+        <v>1.016717935309875</v>
       </c>
       <c r="D4">
-        <v>1.049257757592658</v>
+        <v>1.036274343533884</v>
       </c>
       <c r="E4">
-        <v>1.050141264632669</v>
+        <v>1.030393794525837</v>
       </c>
       <c r="F4">
-        <v>1.061050050049085</v>
+        <v>1.041272827568533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038792487284543</v>
+        <v>1.054113861816085</v>
       </c>
       <c r="J4">
-        <v>1.046449927868126</v>
+        <v>1.035703451293346</v>
       </c>
       <c r="K4">
-        <v>1.051708650735849</v>
+        <v>1.045953826955363</v>
       </c>
       <c r="L4">
-        <v>1.052589985795034</v>
+        <v>1.040138726525884</v>
       </c>
       <c r="M4">
-        <v>1.063472273764617</v>
+        <v>1.050897393216329</v>
       </c>
       <c r="N4">
-        <v>1.047936006795183</v>
+        <v>1.037174268991029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042225866349044</v>
+        <v>1.017997395510993</v>
       </c>
       <c r="D5">
-        <v>1.049478268043926</v>
+        <v>1.037278651628821</v>
       </c>
       <c r="E5">
-        <v>1.050387587219633</v>
+        <v>1.031467101476961</v>
       </c>
       <c r="F5">
-        <v>1.061316560670008</v>
+        <v>1.042437859001388</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038848204603456</v>
+        <v>1.054484967973616</v>
       </c>
       <c r="J5">
-        <v>1.046631505851609</v>
+        <v>1.036508568141699</v>
       </c>
       <c r="K5">
-        <v>1.051877575355392</v>
+        <v>1.046733190695058</v>
       </c>
       <c r="L5">
-        <v>1.052784708886888</v>
+        <v>1.040984556590432</v>
       </c>
       <c r="M5">
-        <v>1.063687727878705</v>
+        <v>1.051837263875431</v>
       </c>
       <c r="N5">
-        <v>1.04811784264023</v>
+        <v>1.037980529197655</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042272628649968</v>
+        <v>1.018211325108284</v>
       </c>
       <c r="D6">
-        <v>1.049515289354765</v>
+        <v>1.03744657033957</v>
       </c>
       <c r="E6">
-        <v>1.050428952797187</v>
+        <v>1.031646636704201</v>
       </c>
       <c r="F6">
-        <v>1.06136131452209</v>
+        <v>1.042632718073661</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038857533912443</v>
+        <v>1.054546799971158</v>
       </c>
       <c r="J6">
-        <v>1.046661987975074</v>
+        <v>1.036643138441578</v>
       </c>
       <c r="K6">
-        <v>1.051905926056581</v>
+        <v>1.046863405110368</v>
       </c>
       <c r="L6">
-        <v>1.05281740181059</v>
+        <v>1.041125967745558</v>
       </c>
       <c r="M6">
-        <v>1.063723900430764</v>
+        <v>1.051994390760508</v>
       </c>
       <c r="N6">
-        <v>1.048148368051807</v>
+        <v>1.038115290602795</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04195109789577</v>
+        <v>1.016735092013773</v>
       </c>
       <c r="D7">
-        <v>1.04926070428882</v>
+        <v>1.036287810905321</v>
       </c>
       <c r="E7">
-        <v>1.050144555542052</v>
+        <v>1.030408181777702</v>
       </c>
       <c r="F7">
-        <v>1.061053610804759</v>
+        <v>1.041288445640637</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038793233515445</v>
+        <v>1.054118852722664</v>
       </c>
       <c r="J7">
-        <v>1.046452354498092</v>
+        <v>1.035714250550119</v>
       </c>
       <c r="K7">
-        <v>1.051710908750962</v>
+        <v>1.04596428422343</v>
       </c>
       <c r="L7">
-        <v>1.052592587824024</v>
+        <v>1.040150069466954</v>
       </c>
       <c r="M7">
-        <v>1.063475152882968</v>
+        <v>1.050909997720837</v>
       </c>
       <c r="N7">
-        <v>1.047938436871242</v>
+        <v>1.037185083583985</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040607544598794</v>
+        <v>1.010430717079904</v>
       </c>
       <c r="D8">
-        <v>1.048196100543658</v>
+        <v>1.03133897771337</v>
       </c>
       <c r="E8">
-        <v>1.048956830973721</v>
+        <v>1.025130632683317</v>
       </c>
       <c r="F8">
-        <v>1.059768268820231</v>
+        <v>1.035557132913462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038520727540477</v>
+        <v>1.052259571550477</v>
       </c>
       <c r="J8">
-        <v>1.045575312083069</v>
+        <v>1.031740613216804</v>
       </c>
       <c r="K8">
-        <v>1.050893966845638</v>
+        <v>1.042110537589748</v>
       </c>
       <c r="L8">
-        <v>1.051652626353056</v>
+        <v>1.035980622249767</v>
       </c>
       <c r="M8">
-        <v>1.062434979966822</v>
+        <v>1.046276073387152</v>
       </c>
       <c r="N8">
-        <v>1.047060148955392</v>
+        <v>1.033205803229874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038241537855794</v>
+        <v>0.9987742622200714</v>
       </c>
       <c r="D9">
-        <v>1.046318391718991</v>
+        <v>1.022192264413068</v>
       </c>
       <c r="E9">
-        <v>1.046867774159797</v>
+        <v>1.015419910711111</v>
       </c>
       <c r="F9">
-        <v>1.057506445354947</v>
+        <v>1.025000441971392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038026471956487</v>
+        <v>1.048703888464608</v>
       </c>
       <c r="J9">
-        <v>1.044026845018561</v>
+        <v>1.024370378821201</v>
       </c>
       <c r="K9">
-        <v>1.049447672939156</v>
+        <v>1.034935263725603</v>
       </c>
       <c r="L9">
-        <v>1.049995302711203</v>
+        <v>1.02826766823073</v>
       </c>
       <c r="M9">
-        <v>1.060600426288212</v>
+        <v>1.03770052063389</v>
       </c>
       <c r="N9">
-        <v>1.04550948289004</v>
+        <v>1.025825102256052</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036665232440359</v>
+        <v>0.9905917630258657</v>
       </c>
       <c r="D10">
-        <v>1.045065473963003</v>
+        <v>1.015778289891753</v>
       </c>
       <c r="E10">
-        <v>1.045477720963911</v>
+        <v>1.008638812258761</v>
       </c>
       <c r="F10">
-        <v>1.056000710466358</v>
+        <v>1.017620933732865</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037687542740762</v>
+        <v>1.046131671771848</v>
       </c>
       <c r="J10">
-        <v>1.042992548559003</v>
+        <v>1.019183694961104</v>
       </c>
       <c r="K10">
-        <v>1.048478992308626</v>
+        <v>1.029868388769239</v>
       </c>
       <c r="L10">
-        <v>1.048889795051586</v>
+        <v>1.022853822620289</v>
       </c>
       <c r="M10">
-        <v>1.059376338554772</v>
+        <v>1.031679161956378</v>
       </c>
       <c r="N10">
-        <v>1.044473717610874</v>
+        <v>1.020631052709952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035982922988514</v>
+        <v>0.9869403939369977</v>
       </c>
       <c r="D11">
-        <v>1.044522694777824</v>
+        <v>1.012918770121612</v>
       </c>
       <c r="E11">
-        <v>1.044876451889901</v>
+        <v>1.0056221029581</v>
       </c>
       <c r="F11">
-        <v>1.055349230723346</v>
+        <v>1.014336147658996</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037538553249134</v>
+        <v>1.044966614814859</v>
       </c>
       <c r="J11">
-        <v>1.042544222988155</v>
+        <v>1.016866744060843</v>
       </c>
       <c r="K11">
-        <v>1.048058488197563</v>
+        <v>1.027601101507784</v>
       </c>
       <c r="L11">
-        <v>1.048410957898306</v>
+        <v>1.020438767808531</v>
       </c>
       <c r="M11">
-        <v>1.058846055058167</v>
+        <v>1.028992676423339</v>
       </c>
       <c r="N11">
-        <v>1.044024755366292</v>
+        <v>1.018310811473655</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035729519277031</v>
+        <v>0.9855668545226782</v>
       </c>
       <c r="D12">
-        <v>1.044321044605871</v>
+        <v>1.01184359672199</v>
       </c>
       <c r="E12">
-        <v>1.04465320968304</v>
+        <v>1.004488779305941</v>
       </c>
       <c r="F12">
-        <v>1.055107320063259</v>
+        <v>1.013101828639601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037482877189278</v>
+        <v>1.044525842160664</v>
       </c>
       <c r="J12">
-        <v>1.042377625037822</v>
+        <v>1.015994865717268</v>
       </c>
       <c r="K12">
-        <v>1.047902135794372</v>
+        <v>1.026747356115788</v>
       </c>
       <c r="L12">
-        <v>1.048233075260444</v>
+        <v>1.019530483727427</v>
       </c>
       <c r="M12">
-        <v>1.058649047975937</v>
+        <v>1.027982250553336</v>
       </c>
       <c r="N12">
-        <v>1.043857920827761</v>
+        <v>1.017437694962827</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035783873583625</v>
+        <v>0.985862281087469</v>
       </c>
       <c r="D13">
-        <v>1.044364300949504</v>
+        <v>1.012074825522575</v>
       </c>
       <c r="E13">
-        <v>1.044701091542157</v>
+        <v>1.00473247131986</v>
       </c>
       <c r="F13">
-        <v>1.055159207182168</v>
+        <v>1.01336724998674</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03749483503329</v>
+        <v>1.044620757586739</v>
       </c>
       <c r="J13">
-        <v>1.04241336401759</v>
+        <v>1.016182405905343</v>
       </c>
       <c r="K13">
-        <v>1.04793568107557</v>
+        <v>1.026931020635218</v>
       </c>
       <c r="L13">
-        <v>1.048271232639927</v>
+        <v>1.019725831582899</v>
       </c>
       <c r="M13">
-        <v>1.058691308290011</v>
+        <v>1.028199568967193</v>
       </c>
       <c r="N13">
-        <v>1.043893710560979</v>
+        <v>1.017625501479479</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035961975815212</v>
+        <v>0.9868272147948948</v>
       </c>
       <c r="D14">
-        <v>1.044506027078084</v>
+        <v>1.012830165597693</v>
       </c>
       <c r="E14">
-        <v>1.04485799665865</v>
+        <v>1.005528687064949</v>
       </c>
       <c r="F14">
-        <v>1.05532923271854</v>
+        <v>1.014234412862899</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0375339578745</v>
+        <v>1.044930345898613</v>
       </c>
       <c r="J14">
-        <v>1.042530453372106</v>
+        <v>1.016794907529068</v>
       </c>
       <c r="K14">
-        <v>1.048045567287799</v>
+        <v>1.027530770151625</v>
       </c>
       <c r="L14">
-        <v>1.048396254493009</v>
+        <v>1.020363921290392</v>
       </c>
       <c r="M14">
-        <v>1.058829771125378</v>
+        <v>1.028909414143677</v>
       </c>
       <c r="N14">
-        <v>1.044010966195808</v>
+        <v>1.018238872925765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036071715306242</v>
+        <v>0.9874194245284451</v>
       </c>
       <c r="D15">
-        <v>1.04459334423864</v>
+        <v>1.013293809428174</v>
       </c>
       <c r="E15">
-        <v>1.044954683810158</v>
+        <v>1.006017546201937</v>
       </c>
       <c r="F15">
-        <v>1.055434001412275</v>
+        <v>1.014766794454645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037558018406431</v>
+        <v>1.045120021076591</v>
       </c>
       <c r="J15">
-        <v>1.042602586744005</v>
+        <v>1.017170779885299</v>
       </c>
       <c r="K15">
-        <v>1.048113250832607</v>
+        <v>1.027898744438882</v>
       </c>
       <c r="L15">
-        <v>1.048473281791524</v>
+        <v>1.020755563739057</v>
       </c>
       <c r="M15">
-        <v>1.058915077874443</v>
+        <v>1.029345090608333</v>
       </c>
       <c r="N15">
-        <v>1.04408320200537</v>
+        <v>1.018615279063855</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036710520167074</v>
+        <v>0.9908317281076529</v>
       </c>
       <c r="D16">
-        <v>1.045101491078955</v>
+        <v>1.015966278581244</v>
       </c>
       <c r="E16">
-        <v>1.045517638617969</v>
+        <v>1.008837268030795</v>
       </c>
       <c r="F16">
-        <v>1.056043957915673</v>
+        <v>1.017836985932806</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037697383717626</v>
+        <v>1.046207886139765</v>
       </c>
       <c r="J16">
-        <v>1.043022292624909</v>
+        <v>1.019335917194216</v>
       </c>
       <c r="K16">
-        <v>1.048506877525166</v>
+        <v>1.030017269864057</v>
       </c>
       <c r="L16">
-        <v>1.048921570891182</v>
+        <v>1.02301256075677</v>
       </c>
       <c r="M16">
-        <v>1.059411526612261</v>
+        <v>1.031855732418299</v>
       </c>
       <c r="N16">
-        <v>1.044503503916765</v>
+        <v>1.020783491116096</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037111290268624</v>
+        <v>0.9929425086269945</v>
       </c>
       <c r="D17">
-        <v>1.045420169839157</v>
+        <v>1.017620178006778</v>
       </c>
       <c r="E17">
-        <v>1.045870935353771</v>
+        <v>1.010583990502391</v>
       </c>
       <c r="F17">
-        <v>1.05642670552711</v>
+        <v>1.019738372080303</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037784206930288</v>
+        <v>1.046876333057905</v>
       </c>
       <c r="J17">
-        <v>1.043285437989224</v>
+        <v>1.020674623686901</v>
       </c>
       <c r="K17">
-        <v>1.048753506084814</v>
+        <v>1.031326157536937</v>
       </c>
       <c r="L17">
-        <v>1.049202732387081</v>
+        <v>1.024408954520466</v>
       </c>
       <c r="M17">
-        <v>1.059722870571124</v>
+        <v>1.033408946424926</v>
       </c>
       <c r="N17">
-        <v>1.044767022977681</v>
+        <v>1.022124098725552</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03734507594937</v>
+        <v>0.994163313192142</v>
       </c>
       <c r="D18">
-        <v>1.045606024862214</v>
+        <v>1.018576983475984</v>
       </c>
       <c r="E18">
-        <v>1.046077068398658</v>
+        <v>1.011595111739425</v>
       </c>
       <c r="F18">
-        <v>1.056650005216151</v>
+        <v>1.020838846617102</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037834634162121</v>
+        <v>1.047261302575427</v>
       </c>
       <c r="J18">
-        <v>1.043438881003282</v>
+        <v>1.021448651542388</v>
       </c>
       <c r="K18">
-        <v>1.048897258129023</v>
+        <v>1.032082577597483</v>
       </c>
       <c r="L18">
-        <v>1.049366715096867</v>
+        <v>1.025216655635756</v>
       </c>
       <c r="M18">
-        <v>1.059904448508158</v>
+        <v>1.034307314647189</v>
       </c>
       <c r="N18">
-        <v>1.044920683898419</v>
+        <v>1.022899225789375</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037424794765476</v>
+        <v>0.9945778444948967</v>
       </c>
       <c r="D19">
-        <v>1.045669392370908</v>
+        <v>1.018901911248905</v>
       </c>
       <c r="E19">
-        <v>1.046147364769087</v>
+        <v>1.011938590118908</v>
       </c>
       <c r="F19">
-        <v>1.056726153008553</v>
+        <v>1.021212648531796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037851792016511</v>
+        <v>1.047391741197959</v>
       </c>
       <c r="J19">
-        <v>1.043491193419661</v>
+        <v>1.021711435670728</v>
       </c>
       <c r="K19">
-        <v>1.048946256502727</v>
+        <v>1.032339320927542</v>
       </c>
       <c r="L19">
-        <v>1.049422626564759</v>
+        <v>1.025490925893486</v>
       </c>
       <c r="M19">
-        <v>1.05996635784671</v>
+        <v>1.034612365579159</v>
       </c>
       <c r="N19">
-        <v>1.04497307060443</v>
+        <v>1.02316238310132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037068289022298</v>
+        <v>0.9927171221997724</v>
       </c>
       <c r="D20">
-        <v>1.045385981193883</v>
+        <v>1.017443550607877</v>
       </c>
       <c r="E20">
-        <v>1.04583302363863</v>
+        <v>1.010397386317534</v>
       </c>
       <c r="F20">
-        <v>1.05638563520664</v>
+        <v>1.019535263351902</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037774913885368</v>
+        <v>1.046805126576288</v>
       </c>
       <c r="J20">
-        <v>1.04325720965617</v>
+        <v>1.020531702317629</v>
       </c>
       <c r="K20">
-        <v>1.048727055742957</v>
+        <v>1.031186457554164</v>
       </c>
       <c r="L20">
-        <v>1.049172567866698</v>
+        <v>1.024259841273321</v>
       </c>
       <c r="M20">
-        <v>1.05968946875994</v>
+        <v>1.033243091394356</v>
       </c>
       <c r="N20">
-        <v>1.044738754557156</v>
+        <v>1.021980974391542</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035909528141006</v>
+        <v>0.9865435506102727</v>
       </c>
       <c r="D21">
-        <v>1.044464293302536</v>
+        <v>1.012608101805147</v>
       </c>
       <c r="E21">
-        <v>1.044811789359098</v>
+        <v>1.005294580119105</v>
       </c>
       <c r="F21">
-        <v>1.055279162278448</v>
+        <v>1.013979453563455</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037522446409522</v>
+        <v>1.044839403867776</v>
       </c>
       <c r="J21">
-        <v>1.042495975400399</v>
+        <v>1.016614856769498</v>
       </c>
       <c r="K21">
-        <v>1.048013212906031</v>
+        <v>1.027354483091093</v>
       </c>
       <c r="L21">
-        <v>1.04835943925382</v>
+        <v>1.020176334563094</v>
       </c>
       <c r="M21">
-        <v>1.058788998264683</v>
+        <v>1.02870073418994</v>
       </c>
       <c r="N21">
-        <v>1.043976439261427</v>
+        <v>1.018058566473465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035181179856079</v>
+        <v>0.9825615823605738</v>
       </c>
       <c r="D22">
-        <v>1.043884573184746</v>
+        <v>1.009492163632336</v>
       </c>
       <c r="E22">
-        <v>1.044170254057791</v>
+        <v>1.002011897955026</v>
       </c>
       <c r="F22">
-        <v>1.054583930063346</v>
+        <v>1.010403695553126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037361773663514</v>
+        <v>1.043556908357734</v>
       </c>
       <c r="J22">
-        <v>1.042016953198719</v>
+        <v>1.014086715531453</v>
       </c>
       <c r="K22">
-        <v>1.047563475137949</v>
+        <v>1.024877895400717</v>
       </c>
       <c r="L22">
-        <v>1.047848070662329</v>
+        <v>1.017543603837858</v>
       </c>
       <c r="M22">
-        <v>1.058222627734088</v>
+        <v>1.02577183268572</v>
       </c>
       <c r="N22">
-        <v>1.043496736793277</v>
+        <v>1.01552683498488</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035567271039428</v>
+        <v>0.9846823663858048</v>
       </c>
       <c r="D23">
-        <v>1.044191914195047</v>
+        <v>1.011151392779705</v>
       </c>
       <c r="E23">
-        <v>1.04451029117185</v>
+        <v>1.003759403552502</v>
       </c>
       <c r="F23">
-        <v>1.054952442780321</v>
+        <v>1.01230737460681</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037447132731135</v>
+        <v>1.04424130943007</v>
       </c>
       <c r="J23">
-        <v>1.042270930061766</v>
+        <v>1.015433341879137</v>
       </c>
       <c r="K23">
-        <v>1.047801976290678</v>
+        <v>1.026197357055108</v>
       </c>
       <c r="L23">
-        <v>1.048119168229591</v>
+        <v>1.018945657847076</v>
       </c>
       <c r="M23">
-        <v>1.058522891048264</v>
+        <v>1.027331641770517</v>
       </c>
       <c r="N23">
-        <v>1.0437510743326</v>
+        <v>1.016875373696438</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037087719362558</v>
+        <v>0.9928189966232082</v>
       </c>
       <c r="D24">
-        <v>1.045401429648022</v>
+        <v>1.017523385248334</v>
       </c>
       <c r="E24">
-        <v>1.045850154122229</v>
+        <v>1.010481728499314</v>
       </c>
       <c r="F24">
-        <v>1.056404192963712</v>
+        <v>1.019627065876912</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037779113677526</v>
+        <v>1.0468373169145</v>
       </c>
       <c r="J24">
-        <v>1.043269964964512</v>
+        <v>1.020596303356524</v>
       </c>
       <c r="K24">
-        <v>1.048739007829739</v>
+        <v>1.031249603652868</v>
       </c>
       <c r="L24">
-        <v>1.049186197958393</v>
+        <v>1.02432724007701</v>
       </c>
       <c r="M24">
-        <v>1.059704561673951</v>
+        <v>1.033318057567806</v>
       </c>
       <c r="N24">
-        <v>1.044751527979499</v>
+        <v>1.022045667171322</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038853026799866</v>
+        <v>1.001856889870369</v>
       </c>
       <c r="D25">
-        <v>1.046804024704104</v>
+        <v>1.02461034240391</v>
       </c>
       <c r="E25">
-        <v>1.047407381916874</v>
+        <v>1.017982128317957</v>
       </c>
       <c r="F25">
-        <v>1.058090806387619</v>
+        <v>1.027787179552723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038155912445243</v>
+        <v>1.049657598954789</v>
       </c>
       <c r="J25">
-        <v>1.044427513389067</v>
+        <v>1.026321923454898</v>
       </c>
       <c r="K25">
-        <v>1.049822368347069</v>
+        <v>1.036838259976284</v>
       </c>
       <c r="L25">
-        <v>1.050423873812586</v>
+        <v>1.030307563948173</v>
       </c>
       <c r="M25">
-        <v>1.061074891301995</v>
+        <v>1.039968922919363</v>
       </c>
       <c r="N25">
-        <v>1.045910720255589</v>
+        <v>1.027779418306975</v>
       </c>
     </row>
   </sheetData>
